--- a/Agendas/201909 Atlanta WGM FHIR Agenda.xlsx
+++ b/Agendas/201909 Atlanta WGM FHIR Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\Documents\SVN\FHIR-documents\Agendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863BFA9-9C8D-4955-89CE-0DE1142448E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA04F053-ACD9-4EC3-A85A-1E8DEC2ECFAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="8160" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>Mon</t>
   </si>
@@ -263,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -319,6 +325,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,10 +672,10 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,9 +783,7 @@
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
